--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H2">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>1.212164091073733</v>
+        <v>1.441675036416</v>
       </c>
       <c r="R2">
-        <v>1.212164091073733</v>
+        <v>8.650050218496</v>
       </c>
       <c r="S2">
-        <v>0.0006642429413875844</v>
+        <v>0.0003027007386973206</v>
       </c>
       <c r="T2">
-        <v>0.0006642429413875844</v>
+        <v>0.000201910792184345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H3">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>449.5911500325998</v>
+        <v>0.05279096433422222</v>
       </c>
       <c r="R3">
-        <v>449.5911500325998</v>
+        <v>0.475118679008</v>
       </c>
       <c r="S3">
-        <v>0.2463674267523863</v>
+        <v>1.10842343086129E-05</v>
       </c>
       <c r="T3">
-        <v>0.2463674267523863</v>
+        <v>1.109029270777628E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H4">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J4">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>373.8752612789663</v>
+        <v>485.0329043404996</v>
       </c>
       <c r="R4">
-        <v>373.8752612789663</v>
+        <v>4365.296139064496</v>
       </c>
       <c r="S4">
-        <v>0.2048765551568266</v>
+        <v>0.1018397452461754</v>
       </c>
       <c r="T4">
-        <v>0.2048765551568266</v>
+        <v>0.1018954086154457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.51717236932776</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H5">
-        <v>4.51717236932776</v>
+        <v>11.673104</v>
       </c>
       <c r="I5">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J5">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>1.470159496806241</v>
+        <v>391.5620610191929</v>
       </c>
       <c r="R5">
-        <v>1.470159496806241</v>
+        <v>3524.058549172736</v>
       </c>
       <c r="S5">
-        <v>0.0008056195325852695</v>
+        <v>0.08221417595674724</v>
       </c>
       <c r="T5">
-        <v>0.0008056195325852695</v>
+        <v>0.08225911242064424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.51717236932776</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H6">
-        <v>4.51717236932776</v>
+        <v>11.673104</v>
       </c>
       <c r="I6">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J6">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>545.2815371844414</v>
+        <v>1.603796292814222</v>
       </c>
       <c r="R6">
-        <v>545.2815371844414</v>
+        <v>14.434166635328</v>
       </c>
       <c r="S6">
-        <v>0.2988039447884496</v>
+        <v>0.0003367404652866621</v>
       </c>
       <c r="T6">
-        <v>0.2988039447884496</v>
+        <v>0.0003369245202332077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H7">
+        <v>29.927301</v>
+      </c>
+      <c r="I7">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J7">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.370512</v>
+      </c>
+      <c r="N7">
+        <v>0.741024</v>
+      </c>
+      <c r="O7">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P7">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q7">
+        <v>3.696141382704</v>
+      </c>
+      <c r="R7">
+        <v>22.176848296224</v>
+      </c>
+      <c r="S7">
+        <v>0.0007760588888711229</v>
+      </c>
+      <c r="T7">
+        <v>0.0005176553770830228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H8">
+        <v>29.927301</v>
+      </c>
+      <c r="I8">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J8">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.040702</v>
+      </c>
+      <c r="O8">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P8">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.1353445561446667</v>
+      </c>
+      <c r="R8">
+        <v>1.218101005302</v>
+      </c>
+      <c r="S8">
+        <v>2.841756712767958E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.843309954607839E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H9">
+        <v>29.927301</v>
+      </c>
+      <c r="I9">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J9">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N9">
+        <v>373.961899</v>
+      </c>
+      <c r="O9">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P9">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q9">
+        <v>1243.518923767178</v>
+      </c>
+      <c r="R9">
+        <v>11191.6703139046</v>
+      </c>
+      <c r="S9">
+        <v>0.2610949675206877</v>
+      </c>
+      <c r="T9">
+        <v>0.2612376762986466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H10">
+        <v>29.927301</v>
+      </c>
+      <c r="I10">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J10">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N10">
+        <v>301.895584</v>
+      </c>
+      <c r="O10">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P10">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q10">
+        <v>1003.880001437643</v>
+      </c>
+      <c r="R10">
+        <v>9034.920012938783</v>
+      </c>
+      <c r="S10">
+        <v>0.2107792743322202</v>
+      </c>
+      <c r="T10">
+        <v>0.2108944816567606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H11">
+        <v>29.927301</v>
+      </c>
+      <c r="I11">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J11">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.236532</v>
+      </c>
+      <c r="O11">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P11">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q11">
+        <v>4.111785040014666</v>
+      </c>
+      <c r="R11">
+        <v>37.006065360132</v>
+      </c>
+      <c r="S11">
+        <v>0.0008633293478336171</v>
+      </c>
+      <c r="T11">
+        <v>0.0008638012247042259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H12">
+        <v>21.552749</v>
+      </c>
+      <c r="I12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.370512</v>
+      </c>
+      <c r="N12">
+        <v>0.741024</v>
+      </c>
+      <c r="O12">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P12">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q12">
+        <v>2.661850712496</v>
+      </c>
+      <c r="R12">
+        <v>15.971104274976</v>
+      </c>
+      <c r="S12">
+        <v>0.0005588944502899946</v>
+      </c>
+      <c r="T12">
+        <v>0.000372799953152165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H13">
+        <v>21.552749</v>
+      </c>
+      <c r="I13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.040702</v>
+      </c>
+      <c r="O13">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P13">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.09747110997755555</v>
+      </c>
+      <c r="R13">
+        <v>0.877239989798</v>
+      </c>
+      <c r="S13">
+        <v>2.046548372315729E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.047666970732314E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="H7">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="I7">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="J7">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N7">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O7">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P7">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q7">
-        <v>453.4503785731704</v>
-      </c>
-      <c r="R7">
-        <v>453.4503785731704</v>
-      </c>
-      <c r="S7">
-        <v>0.2484822108283647</v>
-      </c>
-      <c r="T7">
-        <v>0.2484822108283647</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H14">
+        <v>21.552749</v>
+      </c>
+      <c r="I14">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J14">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N14">
+        <v>373.961899</v>
+      </c>
+      <c r="O14">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P14">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q14">
+        <v>895.5452160789279</v>
+      </c>
+      <c r="R14">
+        <v>8059.906944710351</v>
+      </c>
+      <c r="S14">
+        <v>0.1880328032299516</v>
+      </c>
+      <c r="T14">
+        <v>0.1881355778326946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H15">
+        <v>21.552749</v>
+      </c>
+      <c r="I15">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J15">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N15">
+        <v>301.895584</v>
+      </c>
+      <c r="O15">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P15">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q15">
+        <v>722.9644162400461</v>
+      </c>
+      <c r="R15">
+        <v>6506.679746160416</v>
+      </c>
+      <c r="S15">
+        <v>0.1517969426673152</v>
+      </c>
+      <c r="T15">
+        <v>0.1518799115440869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H16">
+        <v>21.552749</v>
+      </c>
+      <c r="I16">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J16">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.236532</v>
+      </c>
+      <c r="O16">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P16">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q16">
+        <v>2.961184869607556</v>
+      </c>
+      <c r="R16">
+        <v>26.650663826468</v>
+      </c>
+      <c r="S16">
+        <v>0.0006217440302482219</v>
+      </c>
+      <c r="T16">
+        <v>0.0006220838618872707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.045671</v>
+      </c>
+      <c r="I17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.370512</v>
+      </c>
+      <c r="N17">
+        <v>0.741024</v>
+      </c>
+      <c r="O17">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P17">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q17">
+        <v>0.005640551184000001</v>
+      </c>
+      <c r="R17">
+        <v>0.03384330710400001</v>
+      </c>
+      <c r="S17">
+        <v>1.184316137082761E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.899756388576015E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.045671</v>
+      </c>
+      <c r="I18">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J18">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.040702</v>
+      </c>
+      <c r="O18">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P18">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002065445602222223</v>
+      </c>
+      <c r="R18">
+        <v>0.001858901042</v>
+      </c>
+      <c r="S18">
+        <v>4.336704831111413E-08</v>
+      </c>
+      <c r="T18">
+        <v>4.339075178777218E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.045671</v>
+      </c>
+      <c r="I19">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J19">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>1.897690432136556</v>
+      </c>
+      <c r="R19">
+        <v>17.079213889229</v>
+      </c>
+      <c r="S19">
+        <v>0.0003984478340241016</v>
+      </c>
+      <c r="T19">
+        <v>0.0003986656168638625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.045671</v>
+      </c>
+      <c r="I20">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J20">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>1.531985912984889</v>
+      </c>
+      <c r="R20">
+        <v>13.787873216864</v>
+      </c>
+      <c r="S20">
+        <v>0.0003216628267957352</v>
+      </c>
+      <c r="T20">
+        <v>0.0003218386406360505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.045671</v>
+      </c>
+      <c r="I21">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J21">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>0.006274850330222223</v>
+      </c>
+      <c r="R21">
+        <v>0.056473652972</v>
+      </c>
+      <c r="S21">
+        <v>1.317496510791572E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.318216625464044E-06</v>
       </c>
     </row>
   </sheetData>
